--- a/sheets/Test Sheet.xlsx
+++ b/sheets/Test Sheet.xlsx
@@ -198,12 +198,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,6 +262,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -345,9 +345,6 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -361,9 +358,6 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -377,56 +371,47 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -436,49 +421,63 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,10 +805,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -820,22 +819,20 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="1.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
+    <row r="1" spans="1:7" ht="23.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="58"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -843,13 +840,12 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="42.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="42.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -864,607 +860,599 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A4" s="12">
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A4" s="11">
         <v>45168</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>20</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>50</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f>SUM(D4*E4)</f>
         <v>1000</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="75"/>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A5" s="12">
+      <c r="G4" s="66"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A5" s="11">
         <v>45168</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>9</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>27</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f t="shared" ref="F5" si="0">D5*E5</f>
         <v>243</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="75"/>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="12">
+      <c r="G5" s="66"/>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="11">
         <v>45168</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>9</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>52</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>SUM(D6*E6)</f>
         <v>468</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="80"/>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15">
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14">
         <v>27</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f t="shared" ref="F7:F15" si="1">D7*E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="75"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15">
+      <c r="G7" s="66"/>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
         <v>27</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="15">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="14">
         <v>27</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="70">
         <f>D9*E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="77"/>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15">
+      <c r="G9" s="68"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14">
         <v>27</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15">
+      <c r="F10" s="14"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
         <v>27</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14">
         <v>27</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14">
         <v>27</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14">
         <v>27</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" ht="15.75">
-      <c r="A16" s="17" t="s">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="16">
         <f>SUM(F4:F16)</f>
         <v>1711</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="55" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="47">
         <v>2.8</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="57">
+    <row r="18" spans="1:8">
+      <c r="A18" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="48">
         <f>SUM(B17*B16)</f>
         <v>4790.7999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="23.25">
-      <c r="A21" s="84" t="s">
+    <row r="21" spans="1:8" ht="23.25">
+      <c r="A21" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="A23" s="23" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A23" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="24" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="A24" s="28">
+      <c r="F23" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A24" s="24">
         <v>45168</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="29">
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="25">
         <v>200</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="61">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="26">
         <f>SUM(D24*E24)</f>
         <v>131</v>
       </c>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="A25" s="27">
+    </row>
+    <row r="25" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A25" s="23">
         <v>45014</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="29">
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="25">
         <v>50</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="61">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="26">
         <f t="shared" ref="F25:F26" si="2">SUM(D25*E25)</f>
         <v>32.75</v>
       </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="70">
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="61">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="70">
+    </row>
+    <row r="27" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="61">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" s="34" customFormat="1" ht="15.75">
-      <c r="A28" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32">
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" s="29" customFormat="1" ht="15.75">
+      <c r="A28" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28">
         <f>SUM(D24:D27)</f>
         <v>250</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="61">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F28" s="69">
+      <c r="F28" s="60">
         <f>SUM(D28*E28)</f>
         <v>163.75</v>
       </c>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="A30" s="60" t="s">
+    </row>
+    <row r="29" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A30" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="36" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="A31" s="38">
+      <c r="F30" s="51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A31" s="33">
         <v>45168</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39">
+      <c r="B31" s="30"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34">
         <v>20</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="35">
         <v>60</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="35">
         <f>D31*E31</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="11" customFormat="1" ht="15.75">
-      <c r="A32" s="38">
+    <row r="32" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A32" s="33">
         <v>45167</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39">
+      <c r="B32" s="30"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34">
         <v>10</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="35">
         <v>60</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="35">
         <f>D32*E32</f>
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="A33" s="38"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40">
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A33" s="33"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35">
         <v>60</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="35">
         <f>D33*E33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="35"/>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="A35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="41">
+    <row r="34" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="36">
         <f>SUM(D31:D34)</f>
         <v>30</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42">
+      <c r="E35" s="37"/>
+      <c r="F35" s="37">
         <f>SUM(F31:F34)</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D37" s="43" t="s">
+    <row r="36" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D38" s="20">
+      <c r="F37" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A38" s="85"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80">
         <v>2</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="81">
         <v>35</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="81">
         <f>D38*E38</f>
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="A41" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34">
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+    </row>
+    <row r="40" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="79"/>
+    </row>
+    <row r="41" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A41" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84">
         <f>SUM(F38:F40)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D43" s="48" t="s">
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D43" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="20">
+      <c r="F43" s="55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="18">
         <v>3</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <v>2.04</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="40">
         <f>D44*E44</f>
         <v>6.12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D45" s="74" t="s">
+    <row r="45" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D45" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="65" t="s">
+      <c r="E45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="11">
+      <c r="F45" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="10">
         <v>6</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="40">
         <f>D46*E46</f>
         <v>3.4799999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D47" s="51" t="s">
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D47" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D48" s="11">
-        <v>5</v>
-      </c>
-      <c r="E48" s="21">
+      <c r="F47" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D48" s="10">
+        <v>5</v>
+      </c>
+      <c r="E48" s="19">
         <v>1.9</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="40">
         <f>D48*E48</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D49" s="53" t="s">
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D49" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D50" s="11">
+      <c r="F49" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D50" s="10">
         <v>7</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="19">
         <v>1</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="40">
         <f>D50*E50</f>
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D51" s="68" t="s">
+    <row r="51" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D51" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="68" t="s">
+      <c r="E51" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="D52" s="82">
+      <c r="F51" s="59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D52" s="73">
         <v>8</v>
       </c>
-      <c r="E52" s="85">
-        <v>5</v>
-      </c>
-      <c r="F52" s="83">
+      <c r="E52" s="75">
+        <v>5</v>
+      </c>
+      <c r="F52" s="74">
         <f>SUM(F44:F51)</f>
         <v>26.1</v>
       </c>
@@ -1475,14 +1463,14 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="72">
+      <c r="F53" s="63">
         <f>SUM(B16,B18,F28,F35,F38,F52)</f>
         <v>8561.65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/sheets/Test Sheet.xlsx
+++ b/sheets/Test Sheet.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Daily County Record</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Chris</t>
+  </si>
+  <si>
+    <t>Office Supplies 3-0101</t>
+  </si>
+  <si>
+    <t>Dues/Sub/Reg 2-1751</t>
+  </si>
+  <si>
+    <t>Monuments Total</t>
   </si>
 </sst>
 </file>
@@ -183,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +274,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCA93E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88E0E4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -469,15 +496,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,12 +536,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCA93E9"/>
+      <color rgb="FFA365D1"/>
       <color rgb="FFF3C9F0"/>
-      <color rgb="FFA365D1"/>
+      <color rgb="FF88E0E4"/>
       <color rgb="FFDB57BF"/>
-      <color rgb="FF88E0E4"/>
       <color rgb="FFE9D2F6"/>
-      <color rgb="FFCA93E9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -805,10 +855,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1074,15 +1124,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="23.25">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" s="10" customFormat="1" ht="15.75">
@@ -1276,7 +1326,9 @@
       <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="A37" s="77"/>
+      <c r="A37" s="77" t="s">
+        <v>1</v>
+      </c>
       <c r="B37" s="78"/>
       <c r="C37" s="78"/>
       <c r="D37" s="38" t="s">
@@ -1290,7 +1342,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="A38" s="85"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
       <c r="D38" s="80">
@@ -1321,14 +1373,14 @@
       <c r="F40" s="79"/>
     </row>
     <row r="41" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="A41" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84">
+      <c r="A41" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86">
         <f>SUM(F38:F40)</f>
         <v>70</v>
       </c>
@@ -1337,136 +1389,305 @@
       <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="D43" s="39" t="s">
+      <c r="A43" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="89">
+        <v>5</v>
+      </c>
+      <c r="E44" s="74">
+        <v>1</v>
+      </c>
+      <c r="F44" s="74">
+        <f>D44*E44</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="89">
+        <v>6</v>
+      </c>
+      <c r="E45" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="74">
+        <f>D45*E45</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="89">
+        <v>3</v>
+      </c>
+      <c r="E46" s="74">
+        <v>7</v>
+      </c>
+      <c r="F46" s="74">
+        <f>D46*E46</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="89">
+        <v>1</v>
+      </c>
+      <c r="E47" s="74">
+        <v>10</v>
+      </c>
+      <c r="F47" s="74">
+        <f>D47*E47</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A48" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74">
+        <f>SUM(F44:F47)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A50" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A51" s="94"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="93">
+        <v>1</v>
+      </c>
+      <c r="E51" s="95">
+        <v>100</v>
+      </c>
+      <c r="F51" s="94">
+        <f>D51*E51</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A52" s="94"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="93">
+        <v>3</v>
+      </c>
+      <c r="E52" s="95">
+        <v>25</v>
+      </c>
+      <c r="F52" s="94">
+        <f>D52*E52</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A53" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="94">
+        <f>SUM(F51:F52)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D54" s="18"/>
+    </row>
+    <row r="55" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D55" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E55" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="18">
+      <c r="F55" s="55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="18">
         <v>3</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E56" s="19">
         <v>2.04</v>
       </c>
-      <c r="F44" s="40">
-        <f>D44*E44</f>
+      <c r="F56" s="40">
+        <f>D56*E56</f>
         <v>6.12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="D45" s="65" t="s">
+    <row r="57" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D57" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E57" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="10">
+      <c r="F57" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="A58" s="62"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="10">
         <v>6</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E58" s="19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F46" s="40">
-        <f>D46*E46</f>
+      <c r="F58" s="40">
+        <f>D58*E58</f>
         <v>3.4799999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="D47" s="42" t="s">
+    <row r="59" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D59" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E59" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="D48" s="10">
-        <v>5</v>
-      </c>
-      <c r="E48" s="19">
+      <c r="F59" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D60" s="10">
+        <v>5</v>
+      </c>
+      <c r="E60" s="19">
         <v>1.9</v>
       </c>
-      <c r="F48" s="40">
-        <f>D48*E48</f>
+      <c r="F60" s="40">
+        <f>D60*E60</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="D49" s="44" t="s">
+    <row r="61" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D61" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="58" t="s">
+      <c r="E61" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="D50" s="10">
+      <c r="F61" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D62" s="10">
         <v>7</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E62" s="19">
         <v>1</v>
       </c>
-      <c r="F50" s="40">
-        <f>D50*E50</f>
+      <c r="F62" s="40">
+        <f>D62*E62</f>
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="D51" s="59" t="s">
+    <row r="63" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D63" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="59" t="s">
+      <c r="E63" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="10" customFormat="1" ht="15.75">
-      <c r="D52" s="73">
+      <c r="F63" s="59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="10" customFormat="1" ht="15.75">
+      <c r="D64" s="73">
         <v>8</v>
       </c>
-      <c r="E52" s="75">
-        <v>5</v>
-      </c>
-      <c r="F52" s="74">
-        <f>SUM(F44:F51)</f>
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="21">
-      <c r="A53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="63">
-        <f>SUM(B16,B18,F28,F35,F38,F52)</f>
-        <v>8561.65</v>
-      </c>
+      <c r="E64" s="75">
+        <v>5</v>
+      </c>
+      <c r="F64" s="100">
+        <f>D64*E64</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A65" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="40">
+        <f>SUM(F56,F58,F60,F62,F64)</f>
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="10" customFormat="1" ht="15.75"/>
+    <row r="67" spans="1:7" s="10" customFormat="1" ht="21">
+      <c r="A67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="63">
+        <f>SUM(B16,B18,F28,F35,F41,F48,F53,F56,F58,F60,F62,F64)</f>
+        <v>8815.65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75">
+      <c r="G68" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
